--- a/Explained Left,Mid and Right Excel Formula.xlsx
+++ b/Explained Left,Mid and Right Excel Formula.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vimal\Desktop\ebooks\Excel 2.o\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0210E009-9B07-47D6-8BAA-24F63D079709}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0D3B1C-F47C-4B00-A812-091795ADC2E9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Left,Mid &amp; Right-Formula ex" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>RIGHT(A2,LEN(A2)-FIND(" ",A2,FIND(" ",A2)+1))</t>
   </si>
@@ -92,9 +93,6 @@
     <t>find(" ",A2,find(" ",A2)+1)</t>
   </si>
   <si>
-    <t>Sophia Marie Clark</t>
-  </si>
-  <si>
     <t>find(" ",A2,6)</t>
   </si>
   <si>
@@ -107,51 +105,90 @@
     <t>Olivia Grace Wilson</t>
   </si>
   <si>
-    <t>then-&gt; find(" ",A2)-1) -this will subtract 4 out out 13</t>
-  </si>
-  <si>
     <t>Explained_Right</t>
   </si>
   <si>
     <t>RIGHT(text,[number_of_characters])</t>
   </si>
   <si>
-    <t>LEN(text)</t>
-  </si>
-  <si>
     <t>&gt;This formula will return number of caharacters contained</t>
   </si>
   <si>
     <t>Right(Text,18-13)</t>
   </si>
   <si>
+    <t>Note: left is so easy hense, I left that.</t>
+  </si>
+  <si>
+    <t>means, From "John Michael", "John " got subtracted</t>
+  </si>
+  <si>
+    <t>then-F15&gt; find(" ",A2)-1) -this will subtract 6 out out 13</t>
+  </si>
+  <si>
+    <t>after that outer find will be executed(7)</t>
+  </si>
+  <si>
+    <t>Note: Here in the above formula("inner find") will be executed first(5+1)</t>
+  </si>
+  <si>
+    <t>Mid(A2,6,(7+(5+1))-(5)-1)</t>
+  </si>
+  <si>
+    <t>So, the final Equation would be_</t>
+  </si>
+  <si>
+    <t>Last &amp; Mid Name</t>
+  </si>
+  <si>
+    <t>First&amp; Mid name</t>
+  </si>
+  <si>
+    <t>then-&gt; find(" ",A2)-1)</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Note: nested find got executed First and then it moved the formula to find another </t>
+      <t>Very important to understand is "</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <i/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>space, and here outer find formula got another Space</t>
+      <t>Start_number"</t>
     </r>
-  </si>
-  <si>
-    <t>Note: left is so easy hense, I left that.</t>
-  </si>
-  <si>
-    <t>means, From "John Michael", "John " got subtracted</t>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, in this formula.</t>
+    </r>
+  </si>
+  <si>
+    <t>Now, this Mid formula got(text,start_numb, Now_number_of_char?)</t>
+  </si>
+  <si>
+    <t>mid(A2,find(" ",A2)+1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEN(text)- </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,8 +258,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,18 +288,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -313,43 +364,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -398,38 +412,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -439,49 +432,65 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,24 +770,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E22DD4-ABA5-4091-8368-853386551FCE}">
+  <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5703125" customWidth="1"/>
+    <col min="5" max="5" width="1.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
     <col min="13" max="13" width="1.7109375" customWidth="1"/>
+    <col min="19" max="19" width="3.28515625" customWidth="1"/>
+    <col min="20" max="20" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1">
+    <row r="1" spans="1:20" s="19" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -791,476 +803,582 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
       <c r="K1"/>
       <c r="L1"/>
-      <c r="N1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
+      <c r="N1" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
       <c r="S1"/>
       <c r="T1"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="str">
+      <c r="B2" s="2" t="str">
         <f>LEFT(A2,FIND(" ",A2)-1)</f>
         <v>John</v>
       </c>
-      <c r="C2" s="4" t="str">
+      <c r="C2" s="2" t="str">
         <f>MID(A2,FIND(" ",A2)+1,FIND(" ",A2,FIND(" ",A2)+1)-FIND(" ",A2)-1)</f>
         <v>Michael</v>
       </c>
-      <c r="D2" s="4" t="str">
+      <c r="D2" s="2" t="str">
         <f>RIGHT(A2,LEN(A2)-FIND(" ",A2,FIND(" ",A2)+1))</f>
         <v>Smith</v>
       </c>
+      <c r="F2" s="49"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="47"/>
+      <c r="N2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="12"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="str">
-        <f t="shared" ref="B3:B11" si="0">LEFT(A3,FIND(" ",A3)-1)</f>
+      <c r="B3" s="2" t="str">
+        <f t="shared" ref="B3:B10" si="0">LEFT(A3,FIND(" ",A3)-1)</f>
         <v>Emily</v>
       </c>
-      <c r="C3" s="4" t="str">
-        <f t="shared" ref="C3:C11" si="1">MID(A3,FIND(" ",A3)+1,FIND(" ",A3,FIND(" ",A3)+1)-FIND(" ",A3)-1)</f>
+      <c r="C3" s="2" t="str">
+        <f t="shared" ref="C3:C10" si="1">MID(A3,FIND(" ",A3)+1,FIND(" ",A3,FIND(" ",A3)+1)-FIND(" ",A3)-1)</f>
         <v>Rose</v>
       </c>
-      <c r="D3" s="4" t="str">
-        <f t="shared" ref="D3:D11" si="2">RIGHT(A3,LEN(A3)-FIND(" ",A3,FIND(" ",A3)+1))</f>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3:D10" si="2">RIGHT(A3,LEN(A3)-FIND(" ",A3,FIND(" ",A3)+1))</f>
         <v>Johnson</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="6"/>
+      <c r="N3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="16"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>James</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="C4" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Paul</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Anderson</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10"/>
-      <c r="N4" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="27"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="16"/>
+      <c r="N4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="16"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="str">
+      <c r="B5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Sarah</v>
       </c>
-      <c r="C5" s="4" t="str">
+      <c r="C5" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Jane</v>
       </c>
-      <c r="D5" s="4" t="str">
+      <c r="D5" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Williams</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="18"/>
-      <c r="N5" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="37"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="6"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="str">
+      <c r="B6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>David</v>
       </c>
-      <c r="C6" s="4" t="str">
+      <c r="C6" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Lee</v>
       </c>
-      <c r="D6" s="4" t="str">
+      <c r="D6" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Brown</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
-      <c r="N6" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="18"/>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="4" t="s">
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="16"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="6"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.75">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4" t="str">
+      <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Laura</v>
       </c>
-      <c r="C7" s="4" t="str">
+      <c r="C7" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Ann</v>
       </c>
-      <c r="D7" s="4" t="str">
+      <c r="D7" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Martinez</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="18"/>
-      <c r="N7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="18"/>
+      <c r="F7" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="6"/>
+      <c r="N7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="21"/>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="str">
+      <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Robert</v>
       </c>
-      <c r="C8" s="4" t="str">
+      <c r="C8" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Kevin</v>
       </c>
-      <c r="D8" s="4" t="str">
+      <c r="D8" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Garcia</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="18"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="18"/>
+      <c r="F8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="6"/>
+      <c r="N8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="21"/>
     </row>
     <row r="9" spans="1:20" ht="15" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="4" t="str">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Sophia</v>
-      </c>
-      <c r="C9" s="4" t="str">
+        <v>Daniel</v>
+      </c>
+      <c r="C9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>Marie</v>
-      </c>
-      <c r="D9" s="4" t="str">
+        <v>John</v>
+      </c>
+      <c r="D9" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Clark</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="18"/>
-      <c r="N9" s="39" t="s">
-        <v>31</v>
-      </c>
+        <v>Evans</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="41"/>
+      <c r="N9" s="20"/>
       <c r="O9" s="40"/>
       <c r="P9" s="40"/>
       <c r="Q9" s="40"/>
       <c r="R9" s="40"/>
       <c r="S9" s="40"/>
-      <c r="T9" s="41"/>
+      <c r="T9" s="21"/>
     </row>
     <row r="10" spans="1:20" ht="15" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Daniel</v>
-      </c>
-      <c r="C10" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>John</v>
-      </c>
-      <c r="D10" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Evans</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16" t="s">
+      <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="18"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="41"/>
-    </row>
-    <row r="11" spans="1:20" ht="15" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="4" t="str">
+      <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Olivia</v>
       </c>
-      <c r="C11" s="4" t="str">
+      <c r="C10" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Grace</v>
       </c>
-      <c r="D11" s="4" t="str">
+      <c r="D10" s="2" t="str">
         <f t="shared" si="2"/>
         <v>Wilson</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="18"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="41"/>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" customHeight="1">
-      <c r="F12" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="18"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="41"/>
+      <c r="F10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="6"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="24"/>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" customHeight="1">
+      <c r="F11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:20" ht="15" customHeight="1">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="F13" s="20" t="s">
+      <c r="A13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="29"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="9"/>
+      <c r="F14" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="L14" s="29"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="37"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>LEFT(A16,FIND(" ",A16,FIND(" ",A16)+1)-1)</f>
+        <v>John Michael</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f>RIGHT(A16,LEN(A16)-FIND(" ",A16))</f>
+        <v>Michael Smith</v>
+      </c>
+      <c r="F16" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="44"/>
-    </row>
-    <row r="14" spans="1:20" ht="18">
-      <c r="A14" s="23"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="45" t="s">
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="34"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f t="shared" ref="B17:B24" si="3">LEFT(A17,FIND(" ",A17,FIND(" ",A17)+1)-1)</f>
+        <v>Emily Rose</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f t="shared" ref="C17:C24" si="4">RIGHT(A17,LEN(A17)-FIND(" ",A17))</f>
+        <v>Rose Johnson</v>
+      </c>
+      <c r="F17" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="46"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="24"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="28"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="28"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="28"/>
-    </row>
-    <row r="21" spans="1:1" ht="18">
-      <c r="A21" s="23"/>
-    </row>
-    <row r="22" spans="1:1" ht="15" customHeight="1"/>
-    <row r="23" spans="1:1">
-      <c r="A23" s="24"/>
-    </row>
-    <row r="25" spans="1:1" ht="15.75">
-      <c r="A25" s="29"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="24"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="28"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="30"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="28"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="28"/>
-    </row>
-    <row r="32" spans="1:1" ht="15.75">
-      <c r="A32" s="29"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="31"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="33"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="34"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="34"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="28"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="28"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="28"/>
-    </row>
-    <row r="43" spans="1:3" ht="15.75">
-      <c r="A43" s="29"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="30"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="30"/>
-    </row>
-    <row r="47" spans="1:3" ht="18">
-      <c r="A47" s="23"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="34"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>James Paul</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Paul Anderson</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="31"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Sarah Jane</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Jane Williams</v>
+      </c>
+      <c r="F19" s="30"/>
+      <c r="L19" s="29"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>David Lee</v>
+      </c>
+      <c r="C20" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Lee Brown</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="29"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Laura Ann</v>
+      </c>
+      <c r="C21" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Ann Martinez</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="27"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Robert Kevin</v>
+      </c>
+      <c r="C22" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Kevin Garcia</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Daniel John</v>
+      </c>
+      <c r="C23" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>John Evans</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>Olivia Grace</v>
+      </c>
+      <c r="C24" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>Grace Wilson</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15.75">
+      <c r="A40" s="13"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="14"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="14"/>
+    </row>
+    <row r="44" spans="1:1" ht="18">
+      <c r="A44" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A13:D13"/>
     <mergeCell ref="N1:R1"/>
-    <mergeCell ref="N9:T13"/>
+    <mergeCell ref="A12:D12"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C29BF1-260A-4D46-8A60-057C0979B0F2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>